--- a/06. 系统配置/雅耶基础数据和流程清单.xlsx
+++ b/06. 系统配置/雅耶基础数据和流程清单.xlsx
@@ -10,12 +10,12 @@
     <sheet name="基础数据" sheetId="1" r:id="rId1"/>
     <sheet name="业务流程" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>序号</t>
   </si>
@@ -35,7 +35,10 @@
     <t>OI模板</t>
   </si>
   <si>
-    <t>匹配</t>
+    <t>匹配方式</t>
+  </si>
+  <si>
+    <t>测试通过</t>
   </si>
   <si>
     <t>问题编号和链接</t>
@@ -71,12 +74,18 @@
     <t>部门</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>#2，</t>
   </si>
   <si>
     <t>角色</t>
   </si>
   <si>
+    <t>重点是销售人员的货品权限</t>
+  </si>
+  <si>
     <t>员工</t>
   </si>
   <si>
@@ -86,6 +95,15 @@
     <t>产品类别</t>
   </si>
   <si>
+    <t>导入</t>
+  </si>
+  <si>
+    <t>品牌分类</t>
+  </si>
+  <si>
+    <t>产品品牌</t>
+  </si>
+  <si>
     <t>计量单位</t>
   </si>
   <si>
@@ -98,7 +116,7 @@
     <t>普通商品</t>
   </si>
   <si>
-    <t>在OI由普通产品自动生成</t>
+    <t>启用库位和批次管理</t>
   </si>
   <si>
     <t>组合产品</t>
@@ -107,7 +125,7 @@
     <t>组合商品</t>
   </si>
   <si>
-    <t>在OI由组合产品自动生成</t>
+    <t>商品等级</t>
   </si>
   <si>
     <t>线上店铺</t>
@@ -262,12 +280,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,12 +295,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -308,18 +320,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,13 +339,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,22 +351,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,46 +420,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,22 +450,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,31 +472,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +598,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,139 +622,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,21 +663,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -681,17 +678,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,6 +706,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,17 +740,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,152 +766,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -910,10 +922,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,6 +977,22 @@
     <cellStyle name="Percent" xfId="47" builtinId="5"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1235,27 +1260,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="10.7132352941176" style="2"/>
     <col min="4" max="4" width="10.7132352941176" style="3"/>
-    <col min="5" max="5" width="10.7132352941176" style="2"/>
-    <col min="6" max="6" width="10.7132352941176" style="4"/>
-    <col min="7" max="7" width="10.7132352941176" style="2"/>
-    <col min="8" max="8" width="14.1764705882353" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.1176470588235" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.7132352941176" style="2"/>
+    <col min="5" max="8" width="10.7132352941176" style="2"/>
+    <col min="9" max="9" width="14.1764705882353" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.1176470588235" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.7132352941176" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,6 +1305,9 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
@@ -1289,15 +1315,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>10</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
@@ -1305,102 +1330,107 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>13</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>11</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>11</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>21</v>
+      </c>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:9">
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:10">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>23</v>
+      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
@@ -1408,199 +1438,258 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>25</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:2">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="I14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>31</v>
+      </c>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:9">
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:10">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>32</v>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="I16" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:4">
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>34</v>
+      </c>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:2">
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:7">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:2">
+    <row r="20" customHeight="1" spans="1:5">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:7">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:5">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="G23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:4">
+    <row r="24" customHeight="1" spans="1:5">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:5">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:4">
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D26" s="2"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:4">
+      <c r="E26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D27" s="2"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:4">
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D28" s="2"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:4">
+      <c r="E28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D29" s="2"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:4">
+      <c r="E29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="2">
         <v>29</v>
       </c>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="2">
@@ -1728,28 +1817,57 @@
       </c>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" customHeight="1" spans="4:4">
+    <row r="52" customHeight="1" spans="1:4">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" customHeight="1" spans="4:4">
+    <row r="53" customHeight="1" spans="1:4">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" customHeight="1" spans="4:4">
+    <row r="54" customHeight="1" spans="1:4">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" customHeight="1" spans="4:4">
       <c r="D55" s="2"/>
     </row>
+    <row r="56" customHeight="1" spans="4:4">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" customHeight="1" spans="4:4">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" customHeight="1" spans="4:4">
+      <c r="D58" s="2"/>
+    </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G5 G6 G7 G8 G9 G10 O11 G17 G19 G22 G23 G2:G3 G13:G16 G24:G1048576">
+  <conditionalFormatting sqref="H2:H1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G5 G6 G7 G8 G9 G10 P13 G19 G20 G22 G25 G26 G2:G3 G11:G12 G15:G18 G27:G1048576">
       <formula1>"映射,接口,脚本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 E7 C10 E10 K11 M11 C17 E17 C2:C3 C4:C6 C8:C9 C13:C16 C22:C1048576 E2:E3 E4:E6 E8:E9 E13:E16 E22:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 E7 C10 E10 L13 N13 C19 E19 C20 C2:C3 C4:C6 C8:C9 C11:C12 C15:C18 C25:C1048576 E2:E3 E4:E6 E8:E9 E11:E12 E13:E18 E20:E25 E26:E1048576">
       <formula1>"录入,导入,脚本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 F7 D10 F10 L11 N11 D17 F17 D2:D3 D4:D6 D8:D9 D13:D16 D22:D1048576 F2:F3 F4:F6 F8:F9 F13:F16 F22:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 F7 D10 F10 M13 O13 D19 F19 D20 F20 D2:D3 D4:D6 D8:D9 D11:D12 D15:D18 D25:D1048576 F2:F3 F4:F6 F8:F9 F11:F12 F15:F18 F25:F1048576">
       <formula1>"T,F"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1785,25 +1903,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
@@ -1811,13 +1929,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
@@ -1825,16 +1943,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
@@ -1842,13 +1960,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
@@ -1856,13 +1974,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
@@ -1870,38 +1988,38 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:5">
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:5">
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
@@ -1909,31 +2027,30 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
@@ -1941,13 +2058,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
@@ -1955,13 +2072,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
@@ -1969,49 +2086,49 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:5">
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:5">
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:5">
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
@@ -2019,13 +2136,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:5">
@@ -2033,13 +2150,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -2047,7 +2164,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
@@ -2055,23 +2172,23 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:3">
       <c r="C21" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:4">
       <c r="C22" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
@@ -2079,29 +2196,29 @@
         <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:5">
       <c r="C24" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:4">
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:3">
@@ -2109,10 +2226,10 @@
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:4">
@@ -2120,10 +2237,10 @@
         <v>17</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:1">

--- a/06. 系统配置/雅耶基础数据和流程清单.xlsx
+++ b/06. 系统配置/雅耶基础数据和流程清单.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoulinux/OneDrive/NetSuite/projects/Implementation/Yaye/06. 系统配置/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_FF5BBEF0DB3CF17B3A58723585BC9066A1A88BC3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A398957-984D-3549-B6F4-3B9D24FD611D}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础数据" sheetId="1" r:id="rId1"/>
     <sheet name="业务流程" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="87">
   <si>
     <t>序号</t>
   </si>
@@ -273,19 +279,16 @@
   </si>
   <si>
     <t>出口退税</t>
+  </si>
+  <si>
+    <t>销售和仓库在OI中填写，两步至NS。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -297,367 +300,33 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -665,253 +334,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,76 +346,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -997,6 +379,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1254,31 +639,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.7132352941176" style="2"/>
-    <col min="4" max="4" width="10.7132352941176" style="3"/>
-    <col min="5" max="8" width="10.7132352941176" style="2"/>
-    <col min="9" max="9" width="14.1764705882353" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.1176470588235" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.7132352941176" style="2"/>
+    <col min="1" max="3" width="10.7109375" style="2"/>
+    <col min="4" max="4" width="10.7109375" style="4"/>
+    <col min="5" max="8" width="10.7109375" style="2"/>
+    <col min="9" max="9" width="14.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1325,7 +709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:5">
+    <row r="3" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1337,11 +721,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2"/>
@@ -1352,11 +736,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2"/>
@@ -1367,11 +751,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:5">
+    <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2"/>
@@ -1379,7 +763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:9">
+    <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1400,7 +784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:10">
+    <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1415,7 +799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:10">
+    <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1433,7 +817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:7">
+    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1448,7 +832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:5">
+    <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1460,7 +844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:5">
+    <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1472,7 +856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:5">
+    <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1483,7 +867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:5">
+    <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1494,7 +878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:5">
+    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1506,7 +890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:10">
+    <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1521,7 +905,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:5">
+    <row r="17" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1533,7 +917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:5">
+    <row r="18" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1545,7 +929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:5">
+    <row r="19" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1557,7 +941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:5">
+    <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1569,7 +953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:5">
+    <row r="21" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1580,7 +964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1594,7 +978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:5">
+    <row r="23" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1605,7 +989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:5">
+    <row r="24" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1616,7 +1000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:5">
+    <row r="25" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1628,7 +1012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:7">
+    <row r="26" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1643,7 +1027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:5">
+    <row r="27" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1655,7 +1039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:5">
+    <row r="28" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1667,7 +1051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:5">
+    <row r="29" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1679,7 +1063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:5">
+    <row r="30" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1691,214 +1075,202 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:4">
+    <row r="31" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" customHeight="1" spans="1:4">
+    <row r="32" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" customHeight="1" spans="1:4">
+    <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" customHeight="1" spans="1:4">
+    <row r="34" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" customHeight="1" spans="1:4">
+    <row r="35" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" customHeight="1" spans="1:4">
+    <row r="36" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" customHeight="1" spans="1:4">
+    <row r="37" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" customHeight="1" spans="1:4">
+    <row r="38" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" customHeight="1" spans="1:4">
+    <row r="39" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" customHeight="1" spans="1:4">
+    <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" customHeight="1" spans="1:4">
+    <row r="41" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" customHeight="1" spans="1:4">
+    <row r="42" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" customHeight="1" spans="1:4">
+    <row r="43" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" customHeight="1" spans="1:4">
+    <row r="44" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" customHeight="1" spans="1:4">
+    <row r="45" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" customHeight="1" spans="1:4">
+    <row r="46" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" customHeight="1" spans="1:4">
+    <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" customHeight="1" spans="1:4">
+    <row r="48" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" customHeight="1" spans="1:4">
+    <row r="49" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" customHeight="1" spans="1:4">
+    <row r="50" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" customHeight="1" spans="1:4">
+    <row r="51" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" customHeight="1" spans="1:4">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
+    <row r="52" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D52" s="2"/>
     </row>
-    <row r="53" customHeight="1" spans="1:4">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
+    <row r="53" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D53" s="2"/>
     </row>
-    <row r="54" customHeight="1" spans="1:4">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
+    <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D54" s="2"/>
     </row>
-    <row r="55" customHeight="1" spans="4:4">
+    <row r="55" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D55" s="2"/>
     </row>
-    <row r="56" customHeight="1" spans="4:4">
+    <row r="56" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D56" s="2"/>
     </row>
-    <row r="57" customHeight="1" spans="4:4">
+    <row r="57" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D57" s="2"/>
     </row>
-    <row r="58" customHeight="1" spans="4:4">
+    <row r="58" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D58" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G5 G6 G7 G8 G9 G10 P13 G19 G20 G22 G25 G26 G2:G3 G11:G12 G15:G18 G27:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G5 G6 G7 G8 G9 G10 P13 G19 G20 G22 G25 G26 G2:G3 G11:G12 G15:G18 G27:G1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"映射,接口,脚本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 E7 C10 E10 L13 N13 C19 E19 C20 C2:C3 C4:C6 C8:C9 C11:C12 C15:C18 C25:C1048576 E2:E3 E4:E6 E8:E9 E11:E12 E13:E18 E20:E25 E26:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 E7 C10 E10 L13 N13 C19 E19 C20 C2:C3 C4:C6 C8:C9 C11:C12 C15:C18 C25:C1048576 E2:E3 E4:E6 E8:E9 E11:E12 E13:E18 E20:E25 E26:E1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"录入,导入,脚本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 F7 D10 F10 M13 O13 D19 F19 D20 F20 D2:D3 D4:D6 D8:D9 D11:D12 D15:D18 D25:D1048576 F2:F3 F4:F6 F8:F9 F11:F12 F15:F18 F25:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 F7 D10 F10 M13 O13 D19 F19 D20 F20 D2:D3 D4:D6 D8:D9 D11:D12 D15:D18 D25:D1048576 F2:F3 F4:F6 F8:F9 F11:F12 F15:F18 F25:F1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"T,F"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7132352941176" style="2"/>
-    <col min="2" max="2" width="12.2352941176471" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.0588235294118" style="2" customWidth="1"/>
-    <col min="4" max="6" width="10.7132352941176" style="2"/>
-    <col min="7" max="7" width="14.1764705882353" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.1176470588235" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.7132352941176" style="2"/>
+    <col min="1" max="1" width="10.7109375" style="2"/>
+    <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="6" width="10.7109375" style="2"/>
+    <col min="7" max="7" width="14.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1924,7 +1296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1938,7 +1310,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1955,7 +1327,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:5">
+    <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1969,7 +1341,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:5">
+    <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1983,11 +1355,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2000,7 +1372,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="3:5">
+    <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
         <v>62</v>
       </c>
@@ -2011,7 +1385,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="3:5">
+    <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
         <v>63</v>
       </c>
@@ -2022,11 +1398,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:5">
+    <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2039,10 +1415,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:5">
+    <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
         <v>66</v>
       </c>
@@ -2053,7 +1430,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:5">
+    <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2067,7 +1444,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:5">
+    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2081,11 +1458,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="2">
+    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2098,7 +1475,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="3:5">
+    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="2" t="s">
         <v>71</v>
       </c>
@@ -2109,7 +1488,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:5">
+    <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="2" t="s">
         <v>66</v>
       </c>
@@ -2120,7 +1501,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:5">
+    <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="2" t="s">
         <v>72</v>
       </c>
@@ -2131,7 +1514,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:5">
+    <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>11</v>
       </c>
@@ -2145,7 +1528,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:5">
+    <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>12</v>
       </c>
@@ -2159,7 +1542,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:2">
+    <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>13</v>
       </c>
@@ -2167,23 +1550,26 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="2">
+    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>14</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="3:3">
+    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="3:4">
+    <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="5"/>
       <c r="C22" s="2" t="s">
         <v>78</v>
       </c>
@@ -2191,18 +1577,23 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="2">
+    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>15</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:5">
+      <c r="H23" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="2" t="s">
         <v>81</v>
       </c>
@@ -2213,7 +1604,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="3:4">
+    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="2" t="s">
         <v>82</v>
       </c>
@@ -2221,7 +1614,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:3">
+    <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>16</v>
       </c>
@@ -2232,7 +1625,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:4">
+    <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>17</v>
       </c>
@@ -2243,132 +1636,132 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:1">
+    <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:1">
+    <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:1">
+    <row r="30" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:1">
+    <row r="31" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:1">
+    <row r="32" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:1">
+    <row r="33" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:1">
+    <row r="34" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:1">
+    <row r="35" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:1">
+    <row r="36" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:1">
+    <row r="37" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:1">
+    <row r="38" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:1">
+    <row r="39" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:1">
+    <row r="40" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:1">
+    <row r="41" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:1">
+    <row r="42" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:1">
+    <row r="43" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:1">
+    <row r="44" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:1">
+    <row r="45" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:1">
+    <row r="46" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:1">
+    <row r="47" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:1">
+    <row r="48" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:1">
+    <row r="49" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:1">
+    <row r="50" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:1">
+    <row r="51" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:1">
+    <row r="52" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:1">
+    <row r="53" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43</v>
       </c>
@@ -2386,11 +1779,10 @@
     <mergeCell ref="B23:B25"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 E21 F21 D22 E22 F22 D23 E23 D24:E24 D25 D26 D27 D2:D5 D19:D20 D28:D52 E2:E5 E19:E20 E25:E52 F2:F20 F23:F53 D6:E8 D9:E10 D11:E12 D13:E16 D17:E18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 E21 F21 D22 E22 F22 D23 E23 D24:E24 D25 D26 D27 D2:D5 D19:D20 D28:D52 E2:E5 E19:E20 E25:E52 F2:F20 F23:F53 D6:E8 D9:E10 D11:E12 D13:E16 D17:E18" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"T,F"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/06. 系统配置/雅耶基础数据和流程清单.xlsx
+++ b/06. 系统配置/雅耶基础数据和流程清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoulinux/OneDrive/NetSuite/projects/Implementation/Yaye/06. 系统配置/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_FF5BBEF0DB3CF17B3A58723585BC9066A1A88BC3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A398957-984D-3549-B6F4-3B9D24FD611D}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_FF5BBEF0DB3CF17B3A58723585BC9066A1A88BC3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D5AC1B75-90FE-4044-9060-60D89C8999A4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="99">
   <si>
     <t>序号</t>
   </si>
@@ -95,9 +95,6 @@
     <t>员工</t>
   </si>
   <si>
-    <t>用户即为员工</t>
-  </si>
-  <si>
     <t>产品类别</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>最主要的销售价格</t>
-  </si>
-  <si>
     <t>套装拆分</t>
   </si>
   <si>
@@ -281,7 +275,49 @@
     <t>出口退税</t>
   </si>
   <si>
-    <t>销售和仓库在OI中填写，两步至NS。</t>
+    <t>用户即为员工，两个系统保持一致</t>
+  </si>
+  <si>
+    <t>需要在多个公司间和多个部门间共享</t>
+  </si>
+  <si>
+    <t>如何与NS共享</t>
+  </si>
+  <si>
+    <t>刊登最低销售价格</t>
+  </si>
+  <si>
+    <t>正常抓单发货</t>
+  </si>
+  <si>
+    <t>公司间交易；仓库人员根据报关日期快速发货</t>
+  </si>
+  <si>
+    <t>销售和仓库在OI中填写，同步至NS。</t>
+  </si>
+  <si>
+    <t>第3方物流</t>
+  </si>
+  <si>
+    <t>Mark提供清单和授权账号</t>
+  </si>
+  <si>
+    <t>仓内加工和拆分</t>
+  </si>
+  <si>
+    <t>雅耶购买了高级采购模块，需要对接请购单。</t>
+  </si>
+  <si>
+    <t>采购订单无法审核</t>
+  </si>
+  <si>
+    <t>无法产生采购异常通知单</t>
+  </si>
+  <si>
+    <t>由NS发起请求，同步至OI（NS中成本可能发生变化）；或者先退货，再次采购入库；</t>
+  </si>
+  <si>
+    <t>#10</t>
   </si>
 </sst>
 </file>
@@ -318,12 +354,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -338,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,6 +394,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -359,7 +407,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -647,9 +709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -658,7 +720,7 @@
     <col min="4" max="4" width="10.7109375" style="4"/>
     <col min="5" max="8" width="10.7109375" style="2"/>
     <col min="9" max="9" width="14.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
@@ -814,7 +876,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -822,11 +884,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>12</v>
@@ -837,7 +899,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
@@ -849,7 +911,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -861,7 +923,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -872,10 +934,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -883,11 +951,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -895,14 +972,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -910,11 +990,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -922,11 +1002,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -934,7 +1014,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
@@ -946,7 +1026,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
@@ -958,7 +1038,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
@@ -969,7 +1049,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>11</v>
@@ -983,7 +1063,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>11</v>
@@ -994,7 +1074,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
@@ -1005,7 +1085,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
@@ -1017,11 +1097,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>12</v>
@@ -1032,7 +1112,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
@@ -1044,11 +1124,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1056,11 +1136,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1068,11 +1148,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1224,10 +1304,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1254,9 +1334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1266,7 +1346,7 @@
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="6" width="10.7109375" style="2"/>
     <col min="7" max="7" width="14.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
@@ -1275,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -1301,13 +1381,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1315,16 +1395,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1332,13 +1412,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1346,88 +1429,100 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>64</v>
+      <c r="B9" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="38" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1435,13 +1530,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1449,69 +1547,72 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1519,13 +1620,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1533,13 +1634,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1547,71 +1648,71 @@
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>14</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="7"/>
+      <c r="C22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>15</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>15</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="H23" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1619,10 +1720,10 @@
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1630,15 +1731,21 @@
         <v>17</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>18</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1778,9 +1885,20 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 E21 F21 D22 E22 F22 D23 E23 D24:E24 D25 D26 D27 D2:D5 D19:D20 D28:D52 E2:E5 E19:E20 E25:E52 F2:F20 F23:F53 D6:E8 D9:E10 D11:E12 D13:E16 D17:E18" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <conditionalFormatting sqref="F2:F53">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E52" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"T,F"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F53" xr:uid="{FE70E6DC-0BC3-A34F-AC17-05C096B81E5F}">
+      <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/06. 系统配置/雅耶基础数据和流程清单.xlsx
+++ b/06. 系统配置/雅耶基础数据和流程清单.xlsx
@@ -8,20 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoulinux/OneDrive/NetSuite/projects/Implementation/Yaye/06. 系统配置/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_FF5BBEF0DB3CF17B3A58723585BC9066A1A88BC3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D5AC1B75-90FE-4044-9060-60D89C8999A4}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="11_FF5BBEF0DB3CF17B3A58723585BC9066A1A88BC3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99FC8508-38CA-6A49-8F67-D91ED2095BA5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础数据" sheetId="1" r:id="rId1"/>
     <sheet name="业务流程" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="103">
   <si>
     <t>序号</t>
   </si>
@@ -89,9 +97,6 @@
     <t>角色</t>
   </si>
   <si>
-    <t>重点是销售人员的货品权限</t>
-  </si>
-  <si>
     <t>员工</t>
   </si>
   <si>
@@ -119,9 +124,6 @@
     <t>普通商品</t>
   </si>
   <si>
-    <t>启用库位和批次管理</t>
-  </si>
-  <si>
     <t>组合产品</t>
   </si>
   <si>
@@ -191,9 +193,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>套装拆分</t>
-  </si>
-  <si>
     <t>请购流程</t>
   </si>
   <si>
@@ -239,9 +238,6 @@
     <t>调拨</t>
   </si>
   <si>
-    <t>组装加工</t>
-  </si>
-  <si>
     <t>应收</t>
   </si>
   <si>
@@ -251,9 +247,6 @@
     <t>预付</t>
   </si>
   <si>
-    <t>匹配发票生成账单</t>
-  </si>
-  <si>
     <t>费用</t>
   </si>
   <si>
@@ -278,18 +271,9 @@
     <t>用户即为员工，两个系统保持一致</t>
   </si>
   <si>
-    <t>需要在多个公司间和多个部门间共享</t>
-  </si>
-  <si>
     <t>如何与NS共享</t>
   </si>
   <si>
-    <t>刊登最低销售价格</t>
-  </si>
-  <si>
-    <t>正常抓单发货</t>
-  </si>
-  <si>
     <t>公司间交易；仓库人员根据报关日期快速发货</t>
   </si>
   <si>
@@ -308,16 +292,52 @@
     <t>雅耶购买了高级采购模块，需要对接请购单。</t>
   </si>
   <si>
-    <t>采购订单无法审核</t>
-  </si>
-  <si>
-    <t>无法产生采购异常通知单</t>
-  </si>
-  <si>
     <t>由NS发起请求，同步至OI（NS中成本可能发生变化）；或者先退货，再次采购入库；</t>
   </si>
   <si>
     <t>#10</t>
+  </si>
+  <si>
+    <t>启用库位和批次管理，需要和Jim确认</t>
+  </si>
+  <si>
+    <t>重点是测试销售人员的货品权限，只能看到自己所属销售部门的货品</t>
+  </si>
+  <si>
+    <t>加工</t>
+  </si>
+  <si>
+    <t>拆分</t>
+  </si>
+  <si>
+    <t>子件的成本应与加工后的成品成本相等</t>
+  </si>
+  <si>
+    <t>成品成本应与分拆后的子件成本相等</t>
+  </si>
+  <si>
+    <t>平台主要是Amazon和Ebay；能够刊登最低销售价格；</t>
+  </si>
+  <si>
+    <t>需要在多个子公司间和多个部门间共享</t>
+  </si>
+  <si>
+    <t>平台主要是Amazon和Ebay；正常抓单发货；</t>
+  </si>
+  <si>
+    <t>匹配纸质发票生成账单</t>
+  </si>
+  <si>
+    <t>#11，</t>
+  </si>
+  <si>
+    <t>采购订单无法新建和审核</t>
+  </si>
+  <si>
+    <t>#12，</t>
+  </si>
+  <si>
+    <t>采购订单少收货，关闭采购订单后，没有产生采购异常通知单</t>
   </si>
 </sst>
 </file>
@@ -380,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -402,6 +422,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,14 +451,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -707,20 +733,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.7109375" style="2"/>
-    <col min="4" max="4" width="10.7109375" style="4"/>
-    <col min="5" max="8" width="10.7109375" style="2"/>
-    <col min="9" max="9" width="14.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.140625" style="6" customWidth="1"/>
     <col min="11" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
@@ -846,7 +875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="38" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -857,8 +886,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>22</v>
+      <c r="J8" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -866,7 +895,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -875,8 +904,8 @@
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>84</v>
+      <c r="J9" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -884,11 +913,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>12</v>
@@ -899,7 +928,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
@@ -911,7 +940,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -923,7 +952,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -934,7 +963,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
@@ -942,8 +971,8 @@
       <c r="H14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>86</v>
+      <c r="J14" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -951,20 +980,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -972,17 +1001,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>32</v>
+      <c r="J16" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -990,11 +1019,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1002,11 +1031,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1014,7 +1043,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
@@ -1026,7 +1055,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
@@ -1038,7 +1067,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
@@ -1049,7 +1078,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>11</v>
@@ -1063,7 +1092,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>11</v>
@@ -1074,7 +1103,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
@@ -1085,7 +1114,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
@@ -1097,11 +1126,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>12</v>
@@ -1112,7 +1141,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
@@ -1124,11 +1153,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1136,11 +1165,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1148,11 +1177,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1281,34 +1310,13 @@
       </c>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D58" s="2"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -1334,16 +1342,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2"/>
-    <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="10.7109375" style="2"/>
     <col min="7" max="7" width="14.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="42.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -1355,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -1381,13 +1389,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1395,16 +1403,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1412,116 +1420,128 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="38" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="2" t="s">
-        <v>64</v>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1530,189 +1550,188 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>11</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>53</v>
+      <c r="B17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>12</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>53</v>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>13</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>14</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>15</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>14</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="H23" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="7"/>
-      <c r="C22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>15</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1720,10 +1739,10 @@
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1731,10 +1750,10 @@
         <v>17</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1742,10 +1761,13 @@
         <v>18</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1874,16 +1896,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A13:A16"/>
+  <mergeCells count="11">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B12:B15"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F53">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">

--- a/06. 系统配置/雅耶基础数据和流程清单.xlsx
+++ b/06. 系统配置/雅耶基础数据和流程清单.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoulinux/OneDrive/NetSuite/projects/Implementation/Yaye/06. 系统配置/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="11_FF5BBEF0DB3CF17B3A58723585BC9066A1A88BC3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99FC8508-38CA-6A49-8F67-D91ED2095BA5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D714A0C-6030-8B43-84E6-E725652571CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础数据" sheetId="1" r:id="rId1"/>
     <sheet name="业务流程" sheetId="2" r:id="rId2"/>
+    <sheet name="平台对接" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
   <si>
     <t>序号</t>
   </si>
@@ -217,12 +218,6 @@
     <t>换货</t>
   </si>
   <si>
-    <t>线上B2C</t>
-  </si>
-  <si>
-    <t>B2B出口</t>
-  </si>
-  <si>
     <t>售后</t>
   </si>
   <si>
@@ -235,9 +230,6 @@
     <t>重发</t>
   </si>
   <si>
-    <t>调拨</t>
-  </si>
-  <si>
     <t>应收</t>
   </si>
   <si>
@@ -274,33 +266,18 @@
     <t>如何与NS共享</t>
   </si>
   <si>
-    <t>公司间交易；仓库人员根据报关日期快速发货</t>
-  </si>
-  <si>
     <t>销售和仓库在OI中填写，同步至NS。</t>
   </si>
   <si>
-    <t>第3方物流</t>
-  </si>
-  <si>
-    <t>Mark提供清单和授权账号</t>
-  </si>
-  <si>
     <t>仓内加工和拆分</t>
   </si>
   <si>
-    <t>雅耶购买了高级采购模块，需要对接请购单。</t>
-  </si>
-  <si>
     <t>由NS发起请求，同步至OI（NS中成本可能发生变化）；或者先退货，再次采购入库；</t>
   </si>
   <si>
     <t>#10</t>
   </si>
   <si>
-    <t>启用库位和批次管理，需要和Jim确认</t>
-  </si>
-  <si>
     <t>重点是测试销售人员的货品权限，只能看到自己所属销售部门的货品</t>
   </si>
   <si>
@@ -322,22 +299,73 @@
     <t>需要在多个子公司间和多个部门间共享</t>
   </si>
   <si>
-    <t>平台主要是Amazon和Ebay；正常抓单发货；</t>
-  </si>
-  <si>
     <t>匹配纸质发票生成账单</t>
   </si>
   <si>
-    <t>#11，</t>
-  </si>
-  <si>
-    <t>采购订单无法新建和审核</t>
-  </si>
-  <si>
-    <t>#12，</t>
-  </si>
-  <si>
-    <t>采购订单少收货，关闭采购订单后，没有产生采购异常通知单</t>
+    <t>启用库位和批次管理，需要验证OI流程</t>
+  </si>
+  <si>
+    <t>B2B流程</t>
+  </si>
+  <si>
+    <t>线上B2C流程</t>
+  </si>
+  <si>
+    <t>公司间交易；中转仓方案；</t>
+  </si>
+  <si>
+    <t>FBA移除订单</t>
+  </si>
+  <si>
+    <t>调拨流程</t>
+  </si>
+  <si>
+    <t>逻辑仓调拨</t>
+  </si>
+  <si>
+    <t>自有仓与第3方仓库</t>
+  </si>
+  <si>
+    <t>需要关联FBA发货计划</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>平台名称</t>
+  </si>
+  <si>
+    <t>第3方销售</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Ebay</t>
+  </si>
+  <si>
+    <t>第3方仓库</t>
+  </si>
+  <si>
+    <t>可以正常抓取订单；</t>
+  </si>
+  <si>
+    <t>订单可以正常发货；</t>
+  </si>
+  <si>
+    <t>PR0000000353；</t>
+  </si>
+  <si>
+    <t>PAB0000000036；</t>
+  </si>
+  <si>
+    <t>不对接请购单，直接同步采购订单。</t>
+  </si>
+  <si>
+    <t>Ebay和Amazon可以正常抓单发货；</t>
   </si>
 </sst>
 </file>
@@ -400,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -412,9 +440,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -429,11 +454,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -735,9 +783,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -749,7 +797,7 @@
     <col min="5" max="6" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="44.140625" style="5" customWidth="1"/>
     <col min="11" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
@@ -886,8 +934,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>90</v>
+      <c r="J8" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -904,8 +952,8 @@
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>79</v>
+      <c r="J9" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -971,8 +1019,8 @@
       <c r="H14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>80</v>
+      <c r="J14" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -990,10 +1038,10 @@
         <v>19</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1010,8 +1058,8 @@
       <c r="H16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>89</v>
+      <c r="J16" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1312,10 +1360,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1340,11 +1388,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1412,7 +1460,7 @@
         <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1429,14 +1477,14 @@
         <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1449,18 +1497,16 @@
         <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="38" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2" t="s">
         <v>57</v>
       </c>
@@ -1471,18 +1517,12 @@
         <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
@@ -1491,13 +1531,19 @@
       </c>
       <c r="E7" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1514,7 +1560,7 @@
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="2" t="s">
         <v>61</v>
       </c>
@@ -1524,8 +1570,8 @@
       <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>87</v>
+      <c r="H9" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1533,7 +1579,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>51</v>
@@ -1541,8 +1587,11 @@
       <c r="E10" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="H10" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1550,41 +1599,41 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D13" s="2" t="s">
         <v>51</v>
       </c>
@@ -1593,8 +1642,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
         <v>61</v>
       </c>
@@ -1606,151 +1655,162 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>11</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>12</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>14</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>11</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>15</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>16</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>13</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="C25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="H25" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>14</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>15</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="D26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>16</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>17</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>51</v>
@@ -1758,158 +1818,334 @@
     </row>
     <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
+        <v>18</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    <row r="31" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+    <row r="32" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+    <row r="33" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+    <row r="34" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+    <row r="35" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+    <row r="36" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+    <row r="37" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+    <row r="38" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+    <row r="39" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+    <row r="40" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+    <row r="41" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2:F53">
+  <conditionalFormatting sqref="F2:F41">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E41" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>"T,F"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F41" xr:uid="{FE70E6DC-0BC3-A34F-AC17-05C096B81E5F}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB203F8E-0712-3845-9DF3-B4ED75685027}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="7"/>
+    <col min="2" max="2" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="7"/>
+    <col min="5" max="5" width="14.140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D29">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
@@ -1918,11 +2154,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E52" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>"T,F"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D29" xr:uid="{0D303EE1-61D6-9B4D-8E3D-F7DFCE320DAD}">
+      <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F53" xr:uid="{FE70E6DC-0BC3-A34F-AC17-05C096B81E5F}">
-      <formula1>"Y,N"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{8E532FD4-2480-5648-8200-D17CD647B407}">
+      <formula1>"第3方销售,第3方仓库,第3方物流"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/06. 系统配置/雅耶基础数据和流程清单.xlsx
+++ b/06. 系统配置/雅耶基础数据和流程清单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoulinux/OneDrive/NetSuite/projects/Implementation/Yaye/06. 系统配置/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D714A0C-6030-8B43-84E6-E725652571CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941A8BA-51B8-9F4F-B6F7-6813C84EC915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础数据" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="111">
   <si>
     <t>序号</t>
   </si>
@@ -194,9 +194,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>请购流程</t>
-  </si>
-  <si>
     <t>采购入库流程</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
     <t>仓内加工和拆分</t>
   </si>
   <si>
-    <t>由NS发起请求，同步至OI（NS中成本可能发生变化）；或者先退货，再次采购入库；</t>
-  </si>
-  <si>
     <t>#10</t>
   </si>
   <si>
@@ -302,18 +296,12 @@
     <t>匹配纸质发票生成账单</t>
   </si>
   <si>
-    <t>启用库位和批次管理，需要验证OI流程</t>
-  </si>
-  <si>
     <t>B2B流程</t>
   </si>
   <si>
     <t>线上B2C流程</t>
   </si>
   <si>
-    <t>公司间交易；中转仓方案；</t>
-  </si>
-  <si>
     <t>FBA移除订单</t>
   </si>
   <si>
@@ -356,16 +344,25 @@
     <t>订单可以正常发货；</t>
   </si>
   <si>
-    <t>PR0000000353；</t>
-  </si>
-  <si>
-    <t>PAB0000000036；</t>
-  </si>
-  <si>
-    <t>不对接请购单，直接同步采购订单。</t>
-  </si>
-  <si>
     <t>Ebay和Amazon可以正常抓单发货；</t>
+  </si>
+  <si>
+    <t>启用库位和批次管理，需要验收管理，需要验证OI流程</t>
+  </si>
+  <si>
+    <t>两个系统未做匹配</t>
+  </si>
+  <si>
+    <t>公司间客户如何同步？</t>
+  </si>
+  <si>
+    <t>公司间供应商如何同步？</t>
+  </si>
+  <si>
+    <t>先退货，再次采购入库；</t>
+  </si>
+  <si>
+    <t>公司间交易使用中转仓方案；</t>
   </si>
 </sst>
 </file>
@@ -428,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,11 +454,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,9 +783,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -935,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1020,7 +1020,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1038,10 +1038,10 @@
         <v>19</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1059,10 +1059,10 @@
         <v>19</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1134,8 +1134,11 @@
       <c r="G22" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1156,8 +1159,11 @@
       <c r="E24" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1196,7 +1202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1231,14 +1237,17 @@
       <c r="E30" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1388,11 +1397,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1432,7 +1441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1445,6 +1454,7 @@
       <c r="E2" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -1459,34 +1469,35 @@
       <c r="E3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="H3" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>54</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="F4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>56</v>
       </c>
@@ -1497,14 +1508,11 @@
         <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="2" t="s">
@@ -1517,14 +1525,19 @@
         <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>51</v>
@@ -1532,20 +1545,13 @@
       <c r="E7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="2" t="s">
         <v>60</v>
       </c>
@@ -1555,14 +1561,16 @@
       <c r="E8" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="38" x14ac:dyDescent="0.2">
+      <c r="H8" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="2" t="s">
-        <v>61</v>
+      <c r="B9" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>51</v>
@@ -1570,8 +1578,11 @@
       <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>80</v>
+      <c r="F9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1579,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>51</v>
@@ -1587,19 +1598,19 @@
       <c r="E10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>111</v>
+      <c r="H10" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>91</v>
+      <c r="B11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>51</v>
@@ -1607,17 +1618,11 @@
       <c r="E11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="2" t="s">
         <v>63</v>
       </c>
@@ -1627,12 +1632,13 @@
       <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>51</v>
@@ -1640,12 +1646,13 @@
       <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>51</v>
@@ -1653,145 +1660,153 @@
       <c r="E14" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="2" t="s">
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>11</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>10</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>11</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
-        <v>12</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="9">
         <v>13</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>66</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>14</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="9">
         <v>15</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="C24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
-        <v>16</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="D25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
@@ -1802,119 +1817,109 @@
       <c r="D26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="2">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="C27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>18</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>51</v>
+      <c r="A29" s="7">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2:F41">
+  <conditionalFormatting sqref="F2:F40">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
@@ -1923,10 +1928,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E41" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E40" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"T,F"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F41" xr:uid="{FE70E6DC-0BC3-A34F-AC17-05C096B81E5F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F40" xr:uid="{FE70E6DC-0BC3-A34F-AC17-05C096B81E5F}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1959,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>49</v>
@@ -1979,16 +1984,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1996,10 +2001,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2007,16 +2012,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">

--- a/06. 系统配置/雅耶基础数据和流程清单.xlsx
+++ b/06. 系统配置/雅耶基础数据和流程清单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoulinux/OneDrive/NetSuite/projects/Implementation/Yaye/06. 系统配置/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941A8BA-51B8-9F4F-B6F7-6813C84EC915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="114_{C346E667-9F14-434F-939B-6D7C8FBE7718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EAF729D2-E34C-834F-AD29-8A358458E8EE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础数据" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="109">
   <si>
     <t>序号</t>
   </si>
@@ -92,9 +92,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>#2，</t>
-  </si>
-  <si>
     <t>角色</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
     <t>仓内加工和拆分</t>
   </si>
   <si>
-    <t>#10</t>
-  </si>
-  <si>
     <t>重点是测试销售人员的货品权限，只能看到自己所属销售部门的货品</t>
   </si>
   <si>
@@ -347,9 +341,6 @@
     <t>Ebay和Amazon可以正常抓单发货；</t>
   </si>
   <si>
-    <t>启用库位和批次管理，需要验收管理，需要验证OI流程</t>
-  </si>
-  <si>
     <t>两个系统未做匹配</t>
   </si>
   <si>
@@ -363,6 +354,9 @@
   </si>
   <si>
     <t>公司间交易使用中转仓方案；</t>
+  </si>
+  <si>
+    <t>接口同步</t>
   </si>
 </sst>
 </file>
@@ -425,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,9 +446,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -462,6 +453,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,9 +780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -857,7 +854,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -919,23 +919,20 @@
       <c r="H7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="8" spans="1:10" ht="38" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -943,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -953,7 +950,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -961,11 +958,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>12</v>
@@ -976,7 +973,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
@@ -988,7 +985,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -1000,10 +997,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1011,16 +1005,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1028,20 +1019,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="J15" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1049,29 +1037,27 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>105</v>
-      </c>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1079,11 +1065,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1091,7 +1077,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
@@ -1103,7 +1089,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
@@ -1115,7 +1101,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
@@ -1126,7 +1112,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>11</v>
@@ -1135,7 +1121,7 @@
         <v>12</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1143,7 +1129,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>11</v>
@@ -1154,13 +1140,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1168,7 +1154,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
@@ -1180,11 +1166,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>12</v>
@@ -1195,7 +1181,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
@@ -1207,11 +1193,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1219,11 +1205,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1231,14 +1217,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1378,7 +1364,7 @@
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G5 G6 G7 G8 G9 G10 P13 G19 G20 G22 G25 G26 G2:G3 G11:G12 G15:G18 G27:G1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"映射,接口,脚本"</formula1>
+      <formula1>"映射,接口同步,脚本"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 E7 C10 E10 L13 N13 C19 E19 C20 C2:C3 C4:C6 C8:C9 C11:C12 C15:C18 C25:C1048576 E2:E3 E4:E6 E8:E9 E11:E12 E13:E18 E20:E25 E26:E1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"录入,导入,脚本"</formula1>
@@ -1399,7 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -1420,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -1446,123 +1432,123 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="12"/>
+        <v>97</v>
+      </c>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>109</v>
+        <v>50</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1570,19 +1556,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1590,152 +1576,152 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>110</v>
+        <v>50</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>9</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>10</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="D16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+      <c r="A18" s="12">
         <v>11</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>78</v>
+      <c r="B18" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1743,105 +1729,105 @@
         <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>13</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
-        <v>13</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>14</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
+      <c r="A24" s="12">
         <v>15</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="H24" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
@@ -1964,13 +1950,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -1984,16 +1970,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2001,10 +1987,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2012,16 +1998,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">

--- a/06. 系统配置/雅耶基础数据和流程清单.xlsx
+++ b/06. 系统配置/雅耶基础数据和流程清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoulinux/OneDrive/NetSuite/projects/Implementation/Yaye/06. 系统配置/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="114_{C346E667-9F14-434F-939B-6D7C8FBE7718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EAF729D2-E34C-834F-AD29-8A358458E8EE}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="114_{C346E667-9F14-434F-939B-6D7C8FBE7718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{13F7F449-5AE4-F64A-B6C0-F28D886C0CB2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="109">
   <si>
     <t>序号</t>
   </si>
@@ -50,9 +50,6 @@
     <t>OI模板</t>
   </si>
   <si>
-    <t>匹配方式</t>
-  </si>
-  <si>
     <t>测试通过</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>接口同步</t>
+  </si>
+  <si>
+    <t>系统匹配方式</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -444,6 +444,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -782,7 +785,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -792,7 +795,8 @@
     <col min="3" max="3" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="44.140625" style="5" customWidth="1"/>
     <col min="11" max="16384" width="10.7109375" style="2"/>
@@ -818,16 +822,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -835,14 +839,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -850,14 +854,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -865,14 +869,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -880,14 +884,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -895,11 +899,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -907,17 +911,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="38" x14ac:dyDescent="0.2">
@@ -925,14 +929,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -940,17 +944,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -958,14 +962,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -973,11 +977,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -985,11 +989,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -997,7 +1001,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1005,13 +1009,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1019,17 +1023,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1037,27 +1041,27 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1065,11 +1069,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1077,11 +1081,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1089,11 +1093,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1101,10 +1105,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1112,16 +1116,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="J22" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1129,10 +1133,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1140,13 +1144,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1154,11 +1158,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1166,14 +1170,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1181,11 +1185,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1193,11 +1197,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1205,11 +1209,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1217,14 +1221,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1386,8 +1390,8 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1406,25 +1410,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -1432,123 +1436,123 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>106</v>
+        <v>49</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1556,19 +1560,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1576,152 +1580,152 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>107</v>
+        <v>49</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>9</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>10</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+      <c r="A18" s="13">
         <v>11</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>77</v>
+      <c r="B18" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="10" t="s">
+      <c r="H19" s="11" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1729,105 +1733,105 @@
         <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>13</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>13</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="10"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>14</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
+      <c r="A24" s="13">
         <v>15</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="H24" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
@@ -1931,7 +1935,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1950,19 +1954,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1970,16 +1974,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1987,10 +1991,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1998,16 +2008,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="F4" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
